--- a/data/데이터 명세.xlsx
+++ b/data/데이터 명세.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DACON\2025 LG Aimers 6기\온라인해커톤데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juneh\OneDrive\바탕 화면\lg aimers 6\LG_Aimers_6th\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8744981-9598-4B1B-8642-8ED32E9C78BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEF0118-D8B1-4A57-AC8A-2B75CCFE98FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DA19DC8F-9B0C-4123-9D80-76730E032BF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{DA19DC8F-9B0C-4123-9D80-76730E032BF2}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터 명세" sheetId="1" r:id="rId1"/>
@@ -1580,18 +1580,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBA87C3D-28BB-48EC-B99F-1013E1304AD3}">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="36.25" customWidth="1"/>
-    <col min="3" max="3" width="77.375" customWidth="1"/>
-    <col min="5" max="5" width="43.625" customWidth="1"/>
+    <col min="3" max="3" width="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="80.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1612,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1629,7 +1630,7 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1647,7 +1648,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1663,7 +1664,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1681,7 +1682,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="255" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1697,7 +1698,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1715,7 +1716,7 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1733,7 +1734,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1751,7 +1752,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1769,7 +1770,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1787,7 +1788,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1805,7 +1806,7 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1823,7 +1824,7 @@
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1841,7 +1842,7 @@
       </c>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1859,7 +1860,7 @@
       </c>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1877,7 +1878,7 @@
       </c>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1895,7 +1896,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1913,7 +1914,7 @@
       </c>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1931,7 +1932,7 @@
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1949,7 +1950,7 @@
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1967,7 +1968,7 @@
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -1985,7 +1986,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -2003,7 +2004,7 @@
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2021,7 +2022,7 @@
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2039,7 +2040,7 @@
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2057,7 +2058,7 @@
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2075,7 +2076,7 @@
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2093,7 +2094,7 @@
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2113,7 +2114,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2131,7 +2132,7 @@
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2149,7 +2150,7 @@
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2167,7 +2168,7 @@
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2185,7 +2186,7 @@
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2203,7 +2204,7 @@
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2221,7 +2222,7 @@
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2239,7 +2240,7 @@
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2257,7 +2258,7 @@
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -2275,7 +2276,7 @@
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2293,7 +2294,7 @@
       </c>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2309,7 +2310,7 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2325,7 +2326,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2341,7 +2342,7 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2357,7 +2358,7 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2373,7 +2374,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2389,7 +2390,7 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2405,7 +2406,7 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2421,7 +2422,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2437,7 +2438,7 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2453,7 +2454,7 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2469,7 +2470,7 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2485,7 +2486,7 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2501,7 +2502,7 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2517,7 +2518,7 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2535,7 +2536,7 @@
       </c>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2553,7 +2554,7 @@
       </c>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2571,7 +2572,7 @@
       </c>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2589,7 +2590,7 @@
       </c>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2607,7 +2608,7 @@
       </c>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2625,7 +2626,7 @@
       </c>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2643,7 +2644,7 @@
       </c>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2661,7 +2662,7 @@
       </c>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -2679,7 +2680,7 @@
       </c>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -2697,7 +2698,7 @@
       </c>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -2713,7 +2714,7 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -2729,7 +2730,7 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -2745,7 +2746,7 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -2761,7 +2762,7 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -2777,7 +2778,7 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69" s="4">
         <v>68</v>
       </c>
